--- a/_xls/X-u5-i10_semindices.xlsx-recomendacoes_df-mp_loss_indv2.xlsx
+++ b/_xls/X-u5-i10_semindices.xlsx-recomendacoes_df-mp_loss_indv2.xlsx
@@ -467,162 +467,162 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3.135827302932739</v>
+        <v>3.364553451538086</v>
       </c>
       <c r="B2" t="n">
-        <v>1.813947439193726</v>
+        <v>3.276028156280518</v>
       </c>
       <c r="C2" t="n">
-        <v>2.142332077026367</v>
+        <v>4.288135528564453</v>
       </c>
       <c r="D2" t="n">
-        <v>4.035425186157227</v>
+        <v>4.521927356719971</v>
       </c>
       <c r="E2" t="n">
-        <v>2.029828310012817</v>
+        <v>2.10569953918457</v>
       </c>
       <c r="F2" t="n">
-        <v>4.335405349731445</v>
+        <v>2.254221439361572</v>
       </c>
       <c r="G2" t="n">
-        <v>1.177777647972107</v>
+        <v>1.498077869415283</v>
       </c>
       <c r="H2" t="n">
-        <v>1.156824827194214</v>
+        <v>1.263901472091675</v>
       </c>
       <c r="I2" t="n">
-        <v>1.424846649169922</v>
+        <v>1.52591609954834</v>
       </c>
       <c r="J2" t="n">
-        <v>1.243480443954468</v>
+        <v>1.08288311958313</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.351196765899658</v>
+        <v>1.289305210113525</v>
       </c>
       <c r="B3" t="n">
-        <v>2.0606369972229</v>
+        <v>2.55992317199707</v>
       </c>
       <c r="C3" t="n">
-        <v>3.258461236953735</v>
+        <v>4.228291511535645</v>
       </c>
       <c r="D3" t="n">
-        <v>3.853386163711548</v>
+        <v>4.262944221496582</v>
       </c>
       <c r="E3" t="n">
-        <v>2.831381797790527</v>
+        <v>1.367523908615112</v>
       </c>
       <c r="F3" t="n">
-        <v>4.396786689758301</v>
+        <v>4.217843055725098</v>
       </c>
       <c r="G3" t="n">
-        <v>1.188064932823181</v>
+        <v>2.439960479736328</v>
       </c>
       <c r="H3" t="n">
-        <v>1.710741519927979</v>
+        <v>2.498452663421631</v>
       </c>
       <c r="I3" t="n">
-        <v>1.145816802978516</v>
+        <v>1.500430822372437</v>
       </c>
       <c r="J3" t="n">
-        <v>1.790659189224243</v>
+        <v>2.762189865112305</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4.355043411254883</v>
+        <v>4.627938270568848</v>
       </c>
       <c r="B4" t="n">
-        <v>1.363606452941895</v>
+        <v>4.266388893127441</v>
       </c>
       <c r="C4" t="n">
-        <v>1.359990954399109</v>
+        <v>1.652817487716675</v>
       </c>
       <c r="D4" t="n">
-        <v>4.462423324584961</v>
+        <v>2.132837772369385</v>
       </c>
       <c r="E4" t="n">
-        <v>3.637426614761353</v>
+        <v>4.24395751953125</v>
       </c>
       <c r="F4" t="n">
-        <v>3.939149856567383</v>
+        <v>2.565719127655029</v>
       </c>
       <c r="G4" t="n">
-        <v>1.477039575576782</v>
+        <v>1.845032095909119</v>
       </c>
       <c r="H4" t="n">
-        <v>1.892113924026489</v>
+        <v>1.595746040344238</v>
       </c>
       <c r="I4" t="n">
-        <v>1.781697034835815</v>
+        <v>1.859644889831543</v>
       </c>
       <c r="J4" t="n">
-        <v>1.380839824676514</v>
+        <v>1.880110025405884</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.684306621551514</v>
+        <v>1.79403293132782</v>
       </c>
       <c r="B5" t="n">
-        <v>1.160244941711426</v>
+        <v>1.233215570449829</v>
       </c>
       <c r="C5" t="n">
-        <v>1.560482740402222</v>
+        <v>1.444271564483643</v>
       </c>
       <c r="D5" t="n">
-        <v>3.899430513381958</v>
+        <v>1.431325793266296</v>
       </c>
       <c r="E5" t="n">
-        <v>1.405681133270264</v>
+        <v>1.909503698348999</v>
       </c>
       <c r="F5" t="n">
-        <v>1.690921306610107</v>
+        <v>1.386772394180298</v>
       </c>
       <c r="G5" t="n">
-        <v>1.624961614608765</v>
+        <v>3.984141826629639</v>
       </c>
       <c r="H5" t="n">
-        <v>4.318729877471924</v>
+        <v>4.930121421813965</v>
       </c>
       <c r="I5" t="n">
-        <v>1.702097415924072</v>
+        <v>2.652090072631836</v>
       </c>
       <c r="J5" t="n">
-        <v>2.63389778137207</v>
+        <v>4.318733692169189</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.173469543457031</v>
+        <v>2.02114725112915</v>
       </c>
       <c r="B6" t="n">
-        <v>2.318099021911621</v>
+        <v>2.3347487449646</v>
       </c>
       <c r="C6" t="n">
-        <v>4.245169162750244</v>
+        <v>4.393005847930908</v>
       </c>
       <c r="D6" t="n">
-        <v>2.168564319610596</v>
+        <v>3.933730363845825</v>
       </c>
       <c r="E6" t="n">
-        <v>4.851876258850098</v>
+        <v>3.009520053863525</v>
       </c>
       <c r="F6" t="n">
-        <v>2.694359064102173</v>
+        <v>4.041790962219238</v>
       </c>
       <c r="G6" t="n">
-        <v>4.828943252563477</v>
+        <v>3.302088022232056</v>
       </c>
       <c r="H6" t="n">
-        <v>2.908746242523193</v>
+        <v>1.934468030929565</v>
       </c>
       <c r="I6" t="n">
-        <v>4.921853065490723</v>
+        <v>4.252555847167969</v>
       </c>
       <c r="J6" t="n">
-        <v>1.577787399291992</v>
+        <v>1.979119777679443</v>
       </c>
     </row>
   </sheetData>
